--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1636"/>
+  <dimension ref="A1:G1560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41538,10 +41538,8 @@
       </c>
       <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -41563,10 +41561,8 @@
       </c>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1507">
@@ -41588,10 +41584,8 @@
       </c>
       <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -41613,10 +41607,8 @@
       </c>
       <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -41638,10 +41630,8 @@
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -41663,10 +41653,8 @@
       </c>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -41696,10 +41684,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -41725,10 +41711,8 @@
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1513">
@@ -41750,10 +41734,8 @@
       </c>
       <c r="E1513" t="inlineStr"/>
       <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -41775,10 +41757,8 @@
       </c>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -41800,10 +41780,8 @@
       </c>
       <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -41825,10 +41803,8 @@
       </c>
       <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -41850,10 +41826,8 @@
       </c>
       <c r="E1517" t="inlineStr"/>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -41875,10 +41849,8 @@
       </c>
       <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -41900,10 +41872,8 @@
       </c>
       <c r="E1519" t="inlineStr"/>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -41925,10 +41895,8 @@
       </c>
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -41950,10 +41918,8 @@
       </c>
       <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -41971,10 +41937,8 @@
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1523">
@@ -41996,10 +41960,8 @@
       </c>
       <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -42017,10 +41979,8 @@
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1524" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1525">
@@ -42063,10 +42023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1527">
@@ -42096,10 +42054,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1528">
@@ -42129,10 +42085,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1528" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1529">
@@ -42162,10 +42116,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1530">
@@ -42195,10 +42147,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -42224,10 +42174,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -42257,10 +42205,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -42290,10 +42236,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -42319,10 +42263,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -42340,10 +42282,8 @@
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1536">
@@ -42365,10 +42305,8 @@
       </c>
       <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -42390,10 +42328,8 @@
       </c>
       <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -42415,10 +42351,8 @@
       </c>
       <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -42436,10 +42370,8 @@
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -42461,10 +42393,8 @@
       </c>
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1541">
@@ -42486,10 +42416,8 @@
       </c>
       <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -42507,10 +42435,8 @@
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -42532,10 +42458,8 @@
       </c>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -42565,42 +42489,44 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
+        </is>
+      </c>
       <c r="C1545" t="inlineStr"/>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/09</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>$6.72T</t>
-        </is>
-      </c>
+      <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
@@ -42617,28 +42543,16 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42650,28 +42564,16 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr"/>
-      <c r="D1548" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1548" t="inlineStr"/>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42683,25 +42585,13 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D1549" t="inlineStr"/>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
           <t>3</t>
@@ -42716,21 +42606,13 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
+      <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
+      <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
           <t>3</t>
@@ -42740,26 +42622,18 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
           <t>3</t>
@@ -42769,26 +42643,18 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
           <t>3</t>
@@ -42798,30 +42664,18 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr">
         <is>
           <t>3</t>
@@ -42831,45 +42685,33 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1554" t="inlineStr"/>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr"/>
@@ -42878,33 +42720,29 @@
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
           <t>3</t>
@@ -42914,63 +42752,31 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr"/>
       <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1557" t="inlineStr"/>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr"/>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr"/>
-      <c r="D1558" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+      <c r="D1558" t="inlineStr"/>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
           <t>3</t>
@@ -42980,26 +42786,18 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr">
         <is>
           <t>3</t>
@@ -43009,12 +42807,12 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr"/>
@@ -43023,1730 +42821,6 @@
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr"/>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr"/>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr"/>
-      <c r="D1574" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr"/>
-      <c r="D1575" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/12</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr"/>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr"/>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr"/>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr"/>
-      <c r="C1579" t="inlineStr"/>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr"/>
-      <c r="D1580" t="inlineStr">
-        <is>
-          <t>-1.057M</t>
-        </is>
-      </c>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr"/>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr"/>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr"/>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr"/>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr"/>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr"/>
-      <c r="D1586" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr"/>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr"/>
-      <c r="D1588" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1588" t="inlineStr"/>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr"/>
-      <c r="D1589" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr"/>
-      <c r="D1590" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1590" t="inlineStr"/>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr"/>
-      <c r="D1591" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1591" t="inlineStr"/>
-      <c r="F1591" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationMAR</t>
-        </is>
-      </c>
-      <c r="C1592" t="inlineStr"/>
-      <c r="D1592" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
-      <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr"/>
-      <c r="D1593" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1593" t="inlineStr"/>
-      <c r="F1593" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr"/>
-      <c r="D1594" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1594" t="inlineStr"/>
-      <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1595" t="inlineStr"/>
-      <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1596" t="inlineStr"/>
-      <c r="D1596" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1596" t="inlineStr"/>
-      <c r="F1596" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1597" t="inlineStr"/>
-      <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1598" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1598" t="inlineStr"/>
-      <c r="D1598" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1598" t="inlineStr"/>
-      <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1599" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1599" t="inlineStr"/>
-      <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr"/>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1600" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1600" t="inlineStr"/>
-      <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
-      <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1601" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1601" t="inlineStr"/>
-      <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr"/>
-      <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr"/>
-      <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
-      <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1603" t="inlineStr"/>
-      <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr"/>
-      <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr"/>
-      <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr"/>
-      <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1605" t="inlineStr"/>
-      <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr"/>
-      <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1606" t="inlineStr"/>
-      <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr"/>
-      <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1607" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1607" t="inlineStr"/>
-      <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr"/>
-      <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1608" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1608" t="inlineStr"/>
-      <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
-      <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1609" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1609" t="inlineStr"/>
-      <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr"/>
-      <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1610" t="inlineStr"/>
-      <c r="C1610" t="inlineStr"/>
-      <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr"/>
-      <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1611" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1611" t="inlineStr"/>
-      <c r="D1611" t="inlineStr"/>
-      <c r="E1611" t="inlineStr"/>
-      <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1612" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1612" t="inlineStr"/>
-      <c r="D1612" t="inlineStr"/>
-      <c r="E1612" t="inlineStr"/>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr"/>
-      <c r="D1613" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1613" t="inlineStr"/>
-      <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1614" t="inlineStr"/>
-      <c r="D1614" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1614" t="inlineStr"/>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1615" t="inlineStr"/>
-      <c r="D1615" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1615" t="inlineStr"/>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1616" t="inlineStr"/>
-      <c r="D1616" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1616" t="inlineStr"/>
-      <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr"/>
-      <c r="D1617" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1617" t="inlineStr"/>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr"/>
-      <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr"/>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1619" t="inlineStr"/>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr"/>
-      <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr"/>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr"/>
-      <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr"/>
-      <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr"/>
-      <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr"/>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr"/>
-      <c r="D1623" t="inlineStr"/>
-      <c r="E1623" t="inlineStr"/>
-      <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr"/>
-      <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr"/>
-      <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
-      <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr"/>
-      <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr"/>
-      <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr"/>
-      <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
-      <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr"/>
-      <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
-      <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr"/>
-      <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
-      <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr"/>
-      <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
-      <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr"/>
-      <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
-      <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr"/>
-      <c r="D1632" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1632" t="inlineStr"/>
-      <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr"/>
-      <c r="C1633" t="inlineStr"/>
-      <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
-      <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr"/>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr"/>
-      <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr"/>
-      <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr"/>
-      <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr"/>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr"/>
-      <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
-      <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1636"/>
+  <dimension ref="A1:G1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41538,10 +41538,8 @@
       </c>
       <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -41567,10 +41565,8 @@
       </c>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1507">
@@ -41596,10 +41592,8 @@
       </c>
       <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -41625,10 +41619,8 @@
       </c>
       <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -41654,10 +41646,8 @@
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -41683,10 +41673,8 @@
       </c>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -41720,10 +41708,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -41753,10 +41739,8 @@
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1513">
@@ -41786,10 +41770,8 @@
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -41815,10 +41797,8 @@
       </c>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -41844,10 +41824,8 @@
       </c>
       <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -41873,10 +41851,8 @@
       </c>
       <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -41906,10 +41882,8 @@
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -41935,10 +41909,8 @@
       </c>
       <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -41964,10 +41936,8 @@
       </c>
       <c r="E1519" t="inlineStr"/>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -41993,10 +41963,8 @@
       </c>
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -42018,10 +41986,8 @@
       </c>
       <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -42039,10 +42005,8 @@
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1523">
@@ -42064,10 +42028,8 @@
       </c>
       <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -42085,10 +42047,8 @@
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1524" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1525">
@@ -42131,10 +42091,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1527">
@@ -42164,10 +42122,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1528">
@@ -42197,10 +42153,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1528" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1529">
@@ -42230,10 +42184,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1530">
@@ -42263,10 +42215,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -42292,10 +42242,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -42325,10 +42273,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -42358,10 +42304,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -42387,10 +42331,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -42408,10 +42350,8 @@
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1536">
@@ -42437,10 +42377,8 @@
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -42462,10 +42400,8 @@
       </c>
       <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -42487,10 +42423,8 @@
       </c>
       <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -42508,10 +42442,8 @@
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -42533,10 +42465,8 @@
       </c>
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1541">
@@ -42558,10 +42488,8 @@
       </c>
       <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -42579,10 +42507,8 @@
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -42604,10 +42530,8 @@
       </c>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -42637,44 +42561,54 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
+        </is>
+      </c>
       <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr"/>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/09</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>$6.72T</t>
-        </is>
-      </c>
+      <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1546" t="inlineStr">
         <is>
           <t>3</t>
@@ -42689,28 +42623,16 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42722,28 +42644,20 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr"/>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42755,25 +42669,17 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr"/>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
           <t>3</t>
@@ -42788,21 +42694,17 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr"/>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
+      <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
           <t>3</t>
@@ -42817,21 +42719,17 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr"/>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
           <t>3</t>
@@ -42846,21 +42744,17 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr"/>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
           <t>3</t>
@@ -42870,30 +42764,18 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr">
         <is>
           <t>3</t>
@@ -42903,45 +42785,33 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1554" t="inlineStr"/>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr"/>
@@ -42950,33 +42820,25 @@
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
           <t>3</t>
@@ -42986,30 +42848,18 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="D1557" t="inlineStr"/>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr">
         <is>
           <t>3</t>
@@ -43019,30 +42869,22 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr"/>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+          <t>2.121%</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
           <t>3</t>
@@ -43052,41 +42894,25 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr"/>
       <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr"/>
@@ -43095,7 +42921,7 @@
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -43107,15 +42933,11 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr">
@@ -43132,1808 +42954,14 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
+      <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr"/>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr">
-        <is>
-          <t>4.175%</t>
-        </is>
-      </c>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>4.000%</t>
-        </is>
-      </c>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr"/>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr"/>
-      <c r="D1574" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr"/>
-      <c r="D1575" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/12</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr"/>
-      <c r="D1576" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
-      <c r="E1576" t="inlineStr"/>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr"/>
-      <c r="D1577" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr"/>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr"/>
-      <c r="C1579" t="inlineStr"/>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr"/>
-      <c r="D1580" t="inlineStr">
-        <is>
-          <t>-1.057M</t>
-        </is>
-      </c>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr"/>
-      <c r="D1581" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr"/>
-      <c r="D1582" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr"/>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr"/>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr"/>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr"/>
-      <c r="D1586" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr"/>
-      <c r="D1587" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr"/>
-      <c r="D1588" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1588" t="inlineStr"/>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr"/>
-      <c r="D1589" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr"/>
-      <c r="D1590" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1590" t="inlineStr"/>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr"/>
-      <c r="D1591" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1591" t="inlineStr"/>
-      <c r="F1591" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationMAR</t>
-        </is>
-      </c>
-      <c r="C1592" t="inlineStr"/>
-      <c r="D1592" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
-      <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr"/>
-      <c r="D1593" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1593" t="inlineStr"/>
-      <c r="F1593" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr"/>
-      <c r="D1594" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1594" t="inlineStr"/>
-      <c r="F1594" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1595" t="inlineStr"/>
-      <c r="D1595" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1596" t="inlineStr"/>
-      <c r="D1596" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1596" t="inlineStr"/>
-      <c r="F1596" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1597" t="inlineStr"/>
-      <c r="D1597" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1598" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1598" t="inlineStr"/>
-      <c r="D1598" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1598" t="inlineStr"/>
-      <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1599" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1599" t="inlineStr"/>
-      <c r="D1599" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
-      <c r="E1599" t="inlineStr"/>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1600" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1600" t="inlineStr"/>
-      <c r="D1600" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1600" t="inlineStr"/>
-      <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1601" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1601" t="inlineStr"/>
-      <c r="D1601" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1601" t="inlineStr"/>
-      <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr"/>
-      <c r="D1602" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1602" t="inlineStr"/>
-      <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1603" t="inlineStr"/>
-      <c r="D1603" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1603" t="inlineStr"/>
-      <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr"/>
-      <c r="D1604" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1604" t="inlineStr"/>
-      <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1605" t="inlineStr"/>
-      <c r="D1605" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1605" t="inlineStr"/>
-      <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1606" t="inlineStr"/>
-      <c r="D1606" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1606" t="inlineStr"/>
-      <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1607" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1607" t="inlineStr"/>
-      <c r="D1607" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1607" t="inlineStr"/>
-      <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1608" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1608" t="inlineStr"/>
-      <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
-      <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1609" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1609" t="inlineStr"/>
-      <c r="D1609" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1609" t="inlineStr"/>
-      <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1610" t="inlineStr"/>
-      <c r="C1610" t="inlineStr"/>
-      <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr"/>
-      <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1611" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1611" t="inlineStr"/>
-      <c r="D1611" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1611" t="inlineStr"/>
-      <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1612" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1612" t="inlineStr"/>
-      <c r="D1612" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1612" t="inlineStr"/>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr"/>
-      <c r="D1613" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1613" t="inlineStr"/>
-      <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1614" t="inlineStr"/>
-      <c r="D1614" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1614" t="inlineStr"/>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1615" t="inlineStr"/>
-      <c r="D1615" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1615" t="inlineStr"/>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1616" t="inlineStr"/>
-      <c r="D1616" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1616" t="inlineStr"/>
-      <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr"/>
-      <c r="D1617" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1617" t="inlineStr"/>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr"/>
-      <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr"/>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1619" t="inlineStr"/>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr"/>
-      <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr"/>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr"/>
-      <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr"/>
-      <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr"/>
-      <c r="D1622" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1622" t="inlineStr"/>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr"/>
-      <c r="D1623" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1623" t="inlineStr"/>
-      <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr"/>
-      <c r="D1624" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1624" t="inlineStr"/>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr"/>
-      <c r="D1625" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1625" t="inlineStr"/>
-      <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr"/>
-      <c r="D1626" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1626" t="inlineStr"/>
-      <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr"/>
-      <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
-      <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr"/>
-      <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
-      <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr"/>
-      <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
-      <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr"/>
-      <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
-      <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr"/>
-      <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
-      <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr"/>
-      <c r="D1632" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1632" t="inlineStr"/>
-      <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr"/>
-      <c r="C1633" t="inlineStr"/>
-      <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
-      <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr"/>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr"/>
-      <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr"/>
-      <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr"/>
-      <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr"/>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr"/>
-      <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
-      <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1636"/>
+  <dimension ref="A1:G1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41538,10 +41538,8 @@
       </c>
       <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -41567,10 +41565,8 @@
       </c>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1507">
@@ -41596,10 +41592,8 @@
       </c>
       <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -41625,10 +41619,8 @@
       </c>
       <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -41654,10 +41646,8 @@
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -41683,10 +41673,8 @@
       </c>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -41720,10 +41708,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -41753,10 +41739,8 @@
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1513">
@@ -41786,10 +41770,8 @@
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -41815,10 +41797,8 @@
       </c>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -41844,10 +41824,8 @@
       </c>
       <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -41873,10 +41851,8 @@
       </c>
       <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -41906,10 +41882,8 @@
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -41935,10 +41909,8 @@
       </c>
       <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -41964,10 +41936,8 @@
       </c>
       <c r="E1519" t="inlineStr"/>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -41993,10 +41963,8 @@
       </c>
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -42022,10 +41990,8 @@
       </c>
       <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -42043,10 +42009,8 @@
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1523">
@@ -42072,10 +42036,8 @@
       </c>
       <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -42093,10 +42055,8 @@
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1524" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1525">
@@ -42139,10 +42099,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1527">
@@ -42172,10 +42130,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1528">
@@ -42205,10 +42161,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1528" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1529">
@@ -42238,10 +42192,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1530">
@@ -42271,10 +42223,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -42300,10 +42250,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -42333,10 +42281,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -42366,10 +42312,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -42395,10 +42339,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -42416,10 +42358,8 @@
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1536">
@@ -42445,10 +42385,8 @@
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -42470,10 +42408,8 @@
       </c>
       <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -42495,10 +42431,8 @@
       </c>
       <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -42516,10 +42450,8 @@
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -42541,10 +42473,8 @@
       </c>
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1541">
@@ -42566,10 +42496,8 @@
       </c>
       <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -42587,10 +42515,8 @@
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -42612,10 +42538,8 @@
       </c>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -42645,44 +42569,54 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
+        </is>
+      </c>
       <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr"/>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/09</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>$6.72T</t>
-        </is>
-      </c>
+      <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1546" t="inlineStr">
         <is>
           <t>3</t>
@@ -42697,28 +42631,16 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42730,28 +42652,20 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr"/>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42763,25 +42677,17 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr"/>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
           <t>3</t>
@@ -42796,21 +42702,17 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr"/>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
+      <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
           <t>3</t>
@@ -42825,21 +42727,17 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr"/>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
           <t>3</t>
@@ -42854,21 +42752,17 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr"/>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
           <t>3</t>
@@ -42878,30 +42772,18 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr">
         <is>
           <t>3</t>
@@ -42911,45 +42793,33 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1554" t="inlineStr"/>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr"/>
@@ -42958,33 +42828,25 @@
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
           <t>3</t>
@@ -42994,30 +42856,18 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="D1557" t="inlineStr"/>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr">
         <is>
           <t>3</t>
@@ -43027,30 +42877,22 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr"/>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+          <t>2.121%</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
           <t>3</t>
@@ -43060,41 +42902,25 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr"/>
       <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr"/>
@@ -43103,7 +42929,7 @@
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -43115,15 +42941,11 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr">
@@ -43140,1808 +42962,14 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
+      <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr"/>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr">
-        <is>
-          <t>4.175%</t>
-        </is>
-      </c>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>4.000%</t>
-        </is>
-      </c>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr"/>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr"/>
-      <c r="D1574" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr"/>
-      <c r="D1575" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/12</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr"/>
-      <c r="D1576" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
-      <c r="E1576" t="inlineStr"/>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr"/>
-      <c r="D1577" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr"/>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr"/>
-      <c r="C1579" t="inlineStr"/>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr"/>
-      <c r="D1580" t="inlineStr">
-        <is>
-          <t>-1.057M</t>
-        </is>
-      </c>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr"/>
-      <c r="D1581" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr"/>
-      <c r="D1582" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr"/>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr"/>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr"/>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr"/>
-      <c r="D1586" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr"/>
-      <c r="D1587" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr"/>
-      <c r="D1588" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1588" t="inlineStr"/>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr"/>
-      <c r="D1589" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr"/>
-      <c r="D1590" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1590" t="inlineStr"/>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr"/>
-      <c r="D1591" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1591" t="inlineStr"/>
-      <c r="F1591" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationMAR</t>
-        </is>
-      </c>
-      <c r="C1592" t="inlineStr"/>
-      <c r="D1592" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
-      <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr"/>
-      <c r="D1593" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1593" t="inlineStr"/>
-      <c r="F1593" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr"/>
-      <c r="D1594" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1594" t="inlineStr"/>
-      <c r="F1594" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1595" t="inlineStr"/>
-      <c r="D1595" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1596" t="inlineStr"/>
-      <c r="D1596" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1596" t="inlineStr"/>
-      <c r="F1596" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1597" t="inlineStr"/>
-      <c r="D1597" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1598" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1598" t="inlineStr"/>
-      <c r="D1598" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1598" t="inlineStr"/>
-      <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1599" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1599" t="inlineStr"/>
-      <c r="D1599" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
-      <c r="E1599" t="inlineStr"/>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1600" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1600" t="inlineStr"/>
-      <c r="D1600" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1600" t="inlineStr"/>
-      <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1601" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1601" t="inlineStr"/>
-      <c r="D1601" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1601" t="inlineStr"/>
-      <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr"/>
-      <c r="D1602" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1602" t="inlineStr"/>
-      <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1603" t="inlineStr"/>
-      <c r="D1603" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1603" t="inlineStr"/>
-      <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr"/>
-      <c r="D1604" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1604" t="inlineStr"/>
-      <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1605" t="inlineStr"/>
-      <c r="D1605" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1605" t="inlineStr"/>
-      <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1606" t="inlineStr"/>
-      <c r="D1606" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1606" t="inlineStr"/>
-      <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1607" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1607" t="inlineStr"/>
-      <c r="D1607" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1607" t="inlineStr"/>
-      <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1608" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1608" t="inlineStr"/>
-      <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
-      <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1609" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1609" t="inlineStr"/>
-      <c r="D1609" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1609" t="inlineStr"/>
-      <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1610" t="inlineStr"/>
-      <c r="C1610" t="inlineStr"/>
-      <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr"/>
-      <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1611" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1611" t="inlineStr"/>
-      <c r="D1611" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1611" t="inlineStr"/>
-      <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1612" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1612" t="inlineStr"/>
-      <c r="D1612" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1612" t="inlineStr"/>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr"/>
-      <c r="D1613" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1613" t="inlineStr"/>
-      <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1614" t="inlineStr"/>
-      <c r="D1614" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1614" t="inlineStr"/>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1615" t="inlineStr"/>
-      <c r="D1615" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1615" t="inlineStr"/>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1616" t="inlineStr"/>
-      <c r="D1616" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1616" t="inlineStr"/>
-      <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr"/>
-      <c r="D1617" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1617" t="inlineStr"/>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr"/>
-      <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr"/>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1619" t="inlineStr"/>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr"/>
-      <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr"/>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr"/>
-      <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr"/>
-      <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr"/>
-      <c r="D1622" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1622" t="inlineStr"/>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr"/>
-      <c r="D1623" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1623" t="inlineStr"/>
-      <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr"/>
-      <c r="D1624" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1624" t="inlineStr"/>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr"/>
-      <c r="D1625" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1625" t="inlineStr"/>
-      <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr"/>
-      <c r="D1626" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1626" t="inlineStr"/>
-      <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr"/>
-      <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
-      <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr"/>
-      <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
-      <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr"/>
-      <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
-      <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr"/>
-      <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
-      <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr"/>
-      <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
-      <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr"/>
-      <c r="D1632" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1632" t="inlineStr"/>
-      <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr"/>
-      <c r="C1633" t="inlineStr"/>
-      <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
-      <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr"/>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr"/>
-      <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr"/>
-      <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr"/>
-      <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr"/>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr"/>
-      <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
-      <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr">
         <is>
           <t>3</t>
         </is>
